--- a/Timeline Viz.xlsx
+++ b/Timeline Viz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alkashef\Personal\Dev\Github\timeline-visualization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AE250026\Documents\GitHub\timeline-visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B901E4-2BC4-41A2-8D1B-7026EBCA3BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D14D50-5A14-4DC7-B8E3-9A7434227943}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="45" windowWidth="6105" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline Visualization" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -397,10 +398,10 @@
             <c:numRef>
               <c:f>'Timeline Visualization'!$C$3:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43617</c:v>
+                  <c:v>43671</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43631</c:v>
@@ -499,10 +500,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28</c:v>
@@ -600,10 +601,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -748,7 +749,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="2580000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="2580000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1825,7 +1826,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,29 +1955,30 @@
         <v>14</v>
       </c>
       <c r="C3" s="12">
-        <v>43617</v>
+        <f ca="1" xml:space="preserve"> TODAY()</f>
+        <v>43671</v>
       </c>
       <c r="D3" s="7">
         <v>9</v>
       </c>
       <c r="E3" s="9">
-        <f>D3*7</f>
+        <f t="shared" ref="E3:E12" si="0">D3*7</f>
         <v>63</v>
       </c>
       <c r="F3" s="14">
-        <f>C3+(D3*7)</f>
-        <v>43680</v>
+        <f t="shared" ref="F3:F12" ca="1" si="1">C3+(D3*7)</f>
+        <v>43734</v>
       </c>
       <c r="G3" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C3),(TODAY() &lt; F3)), TODAY()-C3, IF(TODAY()&lt;C3,0,E3))</f>
-        <v>32</v>
+        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt;= C3),(TODAY() &lt; F3)), TODAY()-C3, IF(TODAY()&lt;C3,0,E3))</f>
+        <v>0</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" ref="H3:H12" ca="1" si="0">IF(TODAY()&gt;F3, 0, E3-G3)</f>
-        <v>31</v>
-      </c>
-      <c r="I3" s="19" t="str">
-        <f ca="1">IF(H3&lt;=0, "Done", IF(H3=E3, "To Do", "Doing"))</f>
+        <f t="shared" ref="H3:H12" ca="1" si="2">IF(TODAY()&gt;F3, 0, E3-G3)</f>
+        <v>63</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f ca="1" xml:space="preserve"> IF(H3&lt;=0, "Done", IF(AND((H3=E3), (TODAY() &lt; C3)), "To Do", "Doing"))</f>
         <v>Doing</v>
       </c>
     </row>
@@ -1994,24 +1996,24 @@
         <v>4</v>
       </c>
       <c r="E4" s="9">
-        <f>D4*7</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F4" s="14">
-        <f>C4+(D4*7)</f>
+        <f t="shared" si="1"/>
         <v>43659</v>
       </c>
       <c r="G4" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C4),(TODAY() &lt; F4)), TODAY()-C4, IF(TODAY()&lt;C4,0,E4))</f>
-        <v>18</v>
+        <f t="shared" ref="G4:G12" ca="1" si="3" xml:space="preserve"> IF( AND((TODAY() &gt;= C4),(TODAY() &lt; F4)), TODAY()-C4, IF(TODAY()&lt;C4,0,E4))</f>
+        <v>28</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I4" s="19" t="str">
-        <f t="shared" ref="I4:I12" ca="1" si="1">IF(H4&lt;=0, "Done", IF(H4=E4, "To Do", "Doing"))</f>
-        <v>Doing</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f t="shared" ref="I4:I12" ca="1" si="4" xml:space="preserve"> IF(H4&lt;=0, "Done", IF(AND((H4=E4), (TODAY() &lt; C4)), "To Do", "Doing"))</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -2028,23 +2030,23 @@
         <v>4</v>
       </c>
       <c r="E5" s="9">
-        <f>D5*7</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F5" s="14">
-        <f>C5+(D5*7)</f>
+        <f t="shared" si="1"/>
         <v>43526</v>
       </c>
       <c r="G5" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C5),(TODAY() &lt; F5)), TODAY()-C5, IF(TODAY()&lt;C5,0,E5))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I5" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>Done</v>
       </c>
     </row>
@@ -2062,23 +2064,23 @@
         <v>8</v>
       </c>
       <c r="E6" s="9">
-        <f>D6*7</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="F6" s="14">
-        <f>C6+(D6*7)</f>
+        <f t="shared" si="1"/>
         <v>43547</v>
       </c>
       <c r="G6" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C6),(TODAY() &lt; F6)), TODAY()-C6, IF(TODAY()&lt;C6,0,E6))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>56</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I6" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>Done</v>
       </c>
     </row>
@@ -2096,23 +2098,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="9">
-        <f>D7*7</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F7" s="14">
-        <f>C7+(D7*7)</f>
+        <f t="shared" si="1"/>
         <v>43501</v>
       </c>
       <c r="G7" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C7),(TODAY() &lt; F7)), TODAY()-C7, IF(TODAY()&lt;C7,0,E7))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I7" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>Done</v>
       </c>
     </row>
@@ -2130,23 +2132,23 @@
         <v>8</v>
       </c>
       <c r="E8" s="9">
-        <f>D8*7</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="F8" s="14">
-        <f>C8+(D8*7)</f>
+        <f t="shared" si="1"/>
         <v>43610</v>
       </c>
       <c r="G8" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C8),(TODAY() &lt; F8)), TODAY()-C8, IF(TODAY()&lt;C8,0,E8))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>56</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I8" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>Done</v>
       </c>
     </row>
@@ -2164,23 +2166,23 @@
         <v>4</v>
       </c>
       <c r="E9" s="9">
-        <f>D9*7</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F9" s="14">
-        <f>C9+(D9*7)</f>
+        <f t="shared" si="1"/>
         <v>43582</v>
       </c>
       <c r="G9" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C9),(TODAY() &lt; F9)), TODAY()-C9, IF(TODAY()&lt;C9,0,E9))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I9" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>Done</v>
       </c>
     </row>
@@ -2198,23 +2200,23 @@
         <v>4</v>
       </c>
       <c r="E10" s="9">
-        <f>D10*7</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F10" s="14">
-        <f>C10+(D10*7)</f>
+        <f t="shared" si="1"/>
         <v>43613</v>
       </c>
       <c r="G10" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C10),(TODAY() &lt; F10)), TODAY()-C10, IF(TODAY()&lt;C10,0,E10))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I10" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>Done</v>
       </c>
     </row>
@@ -2232,23 +2234,23 @@
         <v>4</v>
       </c>
       <c r="E11" s="9">
-        <f>D11*7</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F11" s="14">
-        <f>C11+(D11*7)</f>
+        <f t="shared" si="1"/>
         <v>43645</v>
       </c>
       <c r="G11" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C11),(TODAY() &lt; F11)), TODAY()-C11, IF(TODAY()&lt;C11,0,E11))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I11" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>Done</v>
       </c>
     </row>
@@ -2266,29 +2268,29 @@
         <v>10</v>
       </c>
       <c r="E12" s="9">
-        <f>D12*7</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="F12" s="14">
-        <f>C12+(D12*7)</f>
+        <f t="shared" si="1"/>
         <v>43748</v>
       </c>
       <c r="G12" s="10">
-        <f ca="1" xml:space="preserve"> IF( AND((TODAY() &gt; C12),(TODAY() &lt; F12)), TODAY()-C12, IF(TODAY()&lt;C12,0,E12))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
-      <c r="I12" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I12" s="10" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>To Do</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I12" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:I14">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
       <sortCondition ref="F1:F14"/>
     </sortState>
   </autoFilter>
